--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>startDate</t>
   </si>
@@ -451,7 +451,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G8" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G10" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -698,13 +698,28 @@
       <c r="U8" s="9"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="5">
+        <v>45747.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45748.0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -721,13 +736,28 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45753.0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>38.5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>52.9</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>startDate</t>
   </si>
@@ -451,7 +451,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G10" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G12" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -774,13 +774,28 @@
       <c r="U10" s="9"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7">
+        <v>33.2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43.2</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>23.6</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -797,13 +812,28 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>33.7</v>
+      </c>
+      <c r="F12" s="7">
+        <v>56.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="1"/>
+        <v>9.8</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>United Surveys</t>
+  </si>
+  <si>
+    <t>CBOS</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G12" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G13" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -850,13 +853,28 @@
       <c r="U12" s="9"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>United Surveys</t>
+  </si>
+  <si>
+    <t>CBOS</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G8" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G13" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -698,13 +701,28 @@
       <c r="U8" s="9"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="5">
+        <v>45747.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45748.0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -721,13 +739,28 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45753.0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>38.5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>52.9</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -744,13 +777,28 @@
       <c r="U10" s="9"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7">
+        <v>33.2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43.2</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>23.6</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -767,13 +815,28 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>33.7</v>
+      </c>
+      <c r="F12" s="7">
+        <v>56.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="1"/>
+        <v>9.8</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -790,13 +853,28 @@
       <c r="U12" s="9"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G13" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G15" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -891,13 +891,28 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="5">
+        <v>45762.0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -914,13 +929,28 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45764.0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>48.6</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
+        <v>17.4</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G15" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G16" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -967,13 +967,28 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="5">
+        <v>45764.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45766.0</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <v>42.8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -138,6 +138,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -145,9 +148,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1005,13 +1005,13 @@
       <c r="U16" s="9"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1028,13 +1028,13 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1051,13 +1051,13 @@
       <c r="U18" s="9"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1074,13 +1074,13 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1097,13 +1097,13 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1120,13 +1120,13 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1143,13 +1143,13 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1166,13 +1166,13 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1189,13 +1189,13 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1212,13 +1212,13 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1235,13 +1235,13 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1258,13 +1258,13 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1281,13 +1281,13 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1304,13 +1304,13 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1327,13 +1327,13 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1350,13 +1350,13 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1373,13 +1373,13 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1396,13 +1396,13 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1419,13 +1419,13 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1442,13 +1442,13 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1465,13 +1465,13 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1488,13 +1488,13 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1511,13 +1511,13 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -1534,13 +1534,13 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1557,13 +1557,13 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1580,13 +1580,13 @@
       <c r="U41" s="9"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1603,13 +1603,13 @@
       <c r="U42" s="9"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1626,13 +1626,13 @@
       <c r="U43" s="9"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1649,13 +1649,13 @@
       <c r="U44" s="9"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -1672,13 +1672,13 @@
       <c r="U45" s="9"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -1695,13 +1695,13 @@
       <c r="U46" s="9"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -1718,13 +1718,13 @@
       <c r="U47" s="9"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -1741,13 +1741,13 @@
       <c r="U48" s="9"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -1764,13 +1764,13 @@
       <c r="U49" s="9"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -1787,13 +1787,13 @@
       <c r="U50" s="9"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="13"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -1810,13 +1810,13 @@
       <c r="U51" s="9"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -1833,13 +1833,13 @@
       <c r="U52" s="9"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -1856,13 +1856,13 @@
       <c r="U53" s="9"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -1879,13 +1879,13 @@
       <c r="U54" s="9"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -1902,13 +1902,13 @@
       <c r="U55" s="9"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="13"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -1925,13 +1925,13 @@
       <c r="U56" s="9"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -1948,13 +1948,13 @@
       <c r="U57" s="9"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="13"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -1971,13 +1971,13 @@
       <c r="U58" s="9"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="13"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -1994,13 +1994,13 @@
       <c r="U59" s="9"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="13"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="10"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2017,13 +2017,13 @@
       <c r="U60" s="9"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="13"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2040,13 +2040,13 @@
       <c r="U61" s="9"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="13"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2063,13 +2063,13 @@
       <c r="U62" s="9"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="13"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -2086,13 +2086,13 @@
       <c r="U63" s="9"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="13"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2109,13 +2109,13 @@
       <c r="U64" s="9"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="13"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2132,13 +2132,13 @@
       <c r="U65" s="9"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="13"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2155,13 +2155,13 @@
       <c r="U66" s="9"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -2178,13 +2178,13 @@
       <c r="U67" s="9"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="13"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2201,13 +2201,13 @@
       <c r="U68" s="9"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="13"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -2224,13 +2224,13 @@
       <c r="U69" s="9"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="13"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2247,13 +2247,13 @@
       <c r="U70" s="9"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="13"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -2270,13 +2270,13 @@
       <c r="U71" s="9"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="13"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2293,13 +2293,13 @@
       <c r="U72" s="9"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="13"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -2316,13 +2316,13 @@
       <c r="U73" s="9"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="13"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2339,13 +2339,13 @@
       <c r="U74" s="9"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="13"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -2362,13 +2362,13 @@
       <c r="U75" s="9"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="13"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="10"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2385,13 +2385,13 @@
       <c r="U76" s="9"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="10"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -2408,13 +2408,13 @@
       <c r="U77" s="9"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -2431,13 +2431,13 @@
       <c r="U78" s="9"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -2454,13 +2454,13 @@
       <c r="U79" s="9"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="13"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -2477,13 +2477,13 @@
       <c r="U80" s="9"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="13"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -138,9 +138,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -148,6 +145,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -454,7 +454,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G16" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G17" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -1005,13 +1005,28 @@
       <c r="U16" s="9"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="5">
+        <v>45775.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45776.0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1028,13 +1043,13 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1051,13 +1066,13 @@
       <c r="U18" s="9"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1074,13 +1089,13 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="10"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1097,13 +1112,13 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="10"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1120,13 +1135,13 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="10"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1143,13 +1158,13 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="10"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1166,13 +1181,13 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1189,13 +1204,13 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1212,13 +1227,13 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1235,13 +1250,13 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="10"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1258,13 +1273,13 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="10"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1281,13 +1296,13 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="10"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1304,13 +1319,13 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="10"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1327,13 +1342,13 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="10"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1350,13 +1365,13 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="10"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1373,13 +1388,13 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1396,13 +1411,13 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1419,13 +1434,13 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="10"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1442,13 +1457,13 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1465,13 +1480,13 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1488,13 +1503,13 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1511,13 +1526,13 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="10"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -1534,13 +1549,13 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="10"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1557,13 +1572,13 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="10"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1580,13 +1595,13 @@
       <c r="U41" s="9"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="10"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1603,13 +1618,13 @@
       <c r="U42" s="9"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="10"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1626,13 +1641,13 @@
       <c r="U43" s="9"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="10"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1649,13 +1664,13 @@
       <c r="U44" s="9"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="10"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -1672,13 +1687,13 @@
       <c r="U45" s="9"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -1695,13 +1710,13 @@
       <c r="U46" s="9"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -1718,13 +1733,13 @@
       <c r="U47" s="9"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="10"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -1741,13 +1756,13 @@
       <c r="U48" s="9"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="10"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -1764,13 +1779,13 @@
       <c r="U49" s="9"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -1787,13 +1802,13 @@
       <c r="U50" s="9"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="10"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -1810,13 +1825,13 @@
       <c r="U51" s="9"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="10"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -1833,13 +1848,13 @@
       <c r="U52" s="9"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="10"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -1856,13 +1871,13 @@
       <c r="U53" s="9"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="10"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -1879,13 +1894,13 @@
       <c r="U54" s="9"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="10"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -1902,13 +1917,13 @@
       <c r="U55" s="9"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="10"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -1925,13 +1940,13 @@
       <c r="U56" s="9"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="10"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -1948,13 +1963,13 @@
       <c r="U57" s="9"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="10"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -1971,13 +1986,13 @@
       <c r="U58" s="9"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="10"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -1994,13 +2009,13 @@
       <c r="U59" s="9"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="10"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2017,13 +2032,13 @@
       <c r="U60" s="9"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="10"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2040,13 +2055,13 @@
       <c r="U61" s="9"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="10"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2063,13 +2078,13 @@
       <c r="U62" s="9"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="10"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -2086,13 +2101,13 @@
       <c r="U63" s="9"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="10"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2109,13 +2124,13 @@
       <c r="U64" s="9"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="10"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2132,13 +2147,13 @@
       <c r="U65" s="9"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="10"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2155,13 +2170,13 @@
       <c r="U66" s="9"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="10"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -2178,13 +2193,13 @@
       <c r="U67" s="9"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="10"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2201,13 +2216,13 @@
       <c r="U68" s="9"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="10"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -2224,13 +2239,13 @@
       <c r="U69" s="9"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="10"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2247,13 +2262,13 @@
       <c r="U70" s="9"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="10"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -2270,13 +2285,13 @@
       <c r="U71" s="9"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="10"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2293,13 +2308,13 @@
       <c r="U72" s="9"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="10"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -2316,13 +2331,13 @@
       <c r="U73" s="9"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="10"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2339,13 +2354,13 @@
       <c r="U74" s="9"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="10"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -2362,13 +2377,13 @@
       <c r="U75" s="9"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="10"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2385,13 +2400,13 @@
       <c r="U76" s="9"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="10"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -2408,13 +2423,13 @@
       <c r="U77" s="9"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="10"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -2431,13 +2446,13 @@
       <c r="U78" s="9"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="10"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -2454,13 +2469,13 @@
       <c r="U79" s="9"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="10"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -2477,13 +2492,13 @@
       <c r="U80" s="9"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="10"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G17" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G18" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -1043,13 +1043,28 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="5">
+        <v>45787.0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45788.0</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="F18" s="7">
+        <v>55.5</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G18" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G19" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -1081,13 +1081,28 @@
       <c r="U18" s="9"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="5">
+        <v>45788.0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45789.0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7">
+        <v>33.3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>53.5</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>

--- a/polldata_pres_R2_mentzen.xlsx
+++ b/polldata_pres_R2_mentzen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>57.0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G19" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G20" si="1">100-sum(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="9"/>
@@ -1119,13 +1119,28 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="5">
+        <v>45789.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7">
+        <v>34.3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>53.1</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
